--- a/REP/検査仕様/otareprotest/_private_/_private_/OTAリプロ評価仕様書.xlsx
+++ b/REP/検査仕様/otareprotest/_private_/_private_/OTAリプロ評価仕様書.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="TRA.EXCEL.ID\ROWHEADER?1ec05371417f4d96a50be0893882bf27" hidden="1">Sheet1!$A$1:$A$1</definedName>
+    <definedName name="TRA.EXCEL.ID\TABLE?657811f0bccd4143ab1b9e385e95615a" hidden="1">Sheet1!$A$1:$A$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -16,6 +20,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,10 +353,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
